--- a/ykodama/ddbj_packages/excel/Beta-lactamase.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Beta-lactamase.1.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -121,7 +121,46 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Identification of the specific individual</t>
+Identification or description of the specific individual from which this sample was obtained</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specify the beta-lactamase family for this gene.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Does the enzyme exhibit carbapenemase activity? If the enzyme does exhibit carbapenemase activity, the response should be "yes", otherwise "no."</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Was carbapenemase activity tested in the presence of EDTA? If carbapenemase activity was tested in the presence of EDTA, the response should be "yes", otherwise "no”.</t>
         </r>
       </text>
     </comment>
@@ -147,7 +186,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -160,7 +199,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -173,7 +212,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained</t>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -186,7 +225,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -199,7 +238,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Scientific name and description of the laboratory host used to propagate the source organism or material from which the sample was obtained</t>
+          <t>Scientific name and description of the laboratory host used to propagate the source organism or material from which the sample was obtained, e.g., Escherichia coli DH5a, or Homo sapiens HeLa cells</t>
         </r>
       </text>
     </comment>
@@ -212,7 +251,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/Beta-lactamase.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Beta-lactamase.1.0.xlsx
@@ -19,7 +19,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0">
+    <comment ref="F15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0">
+    <comment ref="K15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,97 +161,6 @@
             <family val="2"/>
           </rPr>
           <t>Was carbapenemase activity tested in the presence of EDTA? If carbapenemase activity was tested in the presence of EDTA, the response should be "yes", otherwise "no”.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Name of persons or institute who collected the sample</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Scientific name and description of the laboratory host used to propagate the source organism or material from which the sample was obtained, e.g., Escherichia coli DH5a, or Homo sapiens HeLa cells</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -260,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'Beta-lactamase; version 1.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -349,27 +258,6 @@
   </si>
   <si>
     <t>edta_inhibitor_tested</t>
-  </si>
-  <si>
-    <t>collected_by</t>
-  </si>
-  <si>
-    <t>collection_date</t>
-  </si>
-  <si>
-    <t>geo_loc_name</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>isolation_source</t>
-  </si>
-  <si>
-    <t>lab_host</t>
-  </si>
-  <si>
-    <t>lat_lon</t>
   </si>
 </sst>
 </file>
@@ -778,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS14"/>
+  <dimension ref="A1:GS15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,125 +675,109 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:11" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1">
+    <row r="4" spans="1:11" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="5" customFormat="1">
+    <row r="5" spans="1:11" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/Beta-lactamase.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Beta-lactamase.1.0.xlsx
@@ -264,6 +264,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -348,7 +351,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/Beta-lactamase.1.0.xlsx
+++ b/ykodama/ddbj_packages/excel/Beta-lactamase.1.0.xlsx
@@ -164,12 +164,103 @@
         </r>
       </text>
     </comment>
+    <comment ref="L15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of persons or institute who collected the sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Scientific name and description of the laboratory host used to propagate the source organism or material from which the sample was obtained, e.g., Escherichia coli DH5a, or Homo sapiens HeLa cells</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'Beta-lactamase; version 1.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -258,6 +349,27 @@
   </si>
   <si>
     <t>edta_inhibitor_tested</t>
+  </si>
+  <si>
+    <t>collected_by</t>
+  </si>
+  <si>
+    <t>collection_date</t>
+  </si>
+  <si>
+    <t>geo_loc_name</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>lab_host</t>
+  </si>
+  <si>
+    <t>lat_lon</t>
   </si>
 </sst>
 </file>
@@ -678,77 +790,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1">
+    <row r="3" spans="1:18" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1">
+    <row r="4" spans="1:18" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1">
+    <row r="5" spans="1:18" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:18">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -781,6 +893,27 @@
       </c>
       <c r="K15" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
